--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\Wycena_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD2F6D-1BBA-489D-B5CC-8C16E43716A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC287A2E-844D-4950-BFBF-F2BACBD5B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43110" yWindow="3480" windowWidth="25155" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="6345" yWindow="420" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
   <si>
     <t>1500X3000</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>podać rzeczywiste</t>
+  </si>
+  <si>
+    <t>1.4301</t>
+  </si>
+  <si>
+    <t>ALUMINIUM</t>
   </si>
 </sst>
 </file>
@@ -488,8 +494,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J24" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J24" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J48" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J48" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -829,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1865,6 +1871,846 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" ref="H25:H48" si="12">D25*1.07</f>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" ref="I25:I48" si="13">D25*1.1</f>
+        <v>12.65</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J48" si="14">D25*1.25</f>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E31" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="12"/>
+        <v>12.305000000000001</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="13"/>
+        <v>12.65</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="14"/>
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="12"/>
+        <v>19.795000000000002</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="13"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="14"/>
+        <v>23.125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC287A2E-844D-4950-BFBF-F2BACBD5B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919E4E-6406-4D53-B5DA-4FD868A0BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="420" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="42030" yWindow="2670" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="23">
   <si>
     <t>1500X3000</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>ALUMINIUM</t>
+  </si>
+  <si>
+    <t>S355</t>
   </si>
 </sst>
 </file>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1486,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E15" s="4">
         <v>45876</v>
@@ -1505,15 +1508,15 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
@@ -1531,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>1.5</v>
       </c>
       <c r="D16" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E16" s="4">
         <v>45876</v>
@@ -1550,15 +1553,15 @@
       </c>
       <c r="H16" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
@@ -1576,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E17" s="4">
         <v>45876</v>
@@ -1595,15 +1598,15 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
@@ -1621,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E18" s="4">
         <v>45876</v>
@@ -1640,15 +1643,15 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
@@ -1666,13 +1669,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E19" s="4">
         <v>45876</v>
@@ -1685,15 +1688,15 @@
       </c>
       <c r="H19" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1701,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E20" s="4">
         <v>45876</v>
@@ -1720,15 +1723,15 @@
       </c>
       <c r="H20" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1736,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>8</v>
       </c>
       <c r="D21" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E21" s="4">
         <v>45876</v>
@@ -1755,15 +1758,15 @@
       </c>
       <c r="H21" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -1771,13 +1774,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E22" s="4">
         <v>45876</v>
@@ -1790,15 +1793,15 @@
       </c>
       <c r="H22" s="13">
         <f t="shared" si="6"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="7"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -1806,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E23" s="4">
         <v>45876</v>
@@ -1825,15 +1828,15 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" ref="H23:H24" si="9">D23*1.07</f>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" ref="I23:I24" si="10">D23*1.1</f>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" ref="J23:J24" si="11">D23*1.25</f>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -1841,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
       </c>
       <c r="D24" s="3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E24" s="4">
         <v>45876</v>
@@ -1860,15 +1863,15 @@
       </c>
       <c r="H24" s="13">
         <f t="shared" si="9"/>
-        <v>3.8520000000000003</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="10"/>
-        <v>3.9600000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919E4E-6406-4D53-B5DA-4FD868A0BFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3381EB-17CE-4BE0-8268-88B04572CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42030" yWindow="2670" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="25">
   <si>
     <t>1500X3000</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>S355</t>
+  </si>
+  <si>
+    <t>1.4404</t>
+  </si>
+  <si>
+    <t>MTL</t>
   </si>
 </sst>
 </file>
@@ -497,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J48" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J48" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J64" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J64" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -838,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A19" sqref="A19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -922,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="13">
-        <f t="shared" ref="H2:H12" si="0">D2*1.07</f>
+        <f t="shared" ref="H2:H14" si="0">D2*1.07</f>
         <v>4.1623000000000001</v>
       </c>
       <c r="I2" s="14">
@@ -971,11 +977,11 @@
         <v>4.2586000000000004</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I12" si="1">D3*1.1</f>
+        <f t="shared" ref="I3:I14" si="1">D3*1.1</f>
         <v>4.3780000000000001</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J12" si="2">D3*1.25</f>
+        <f t="shared" ref="J3:J14" si="2">D3*1.25</f>
         <v>4.9749999999999996</v>
       </c>
       <c r="O3" s="2"/>
@@ -1132,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="E7" s="4">
         <v>45876</v>
@@ -1147,18 +1153,18 @@
         <v>7</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1672000000000002</v>
+        <f t="shared" ref="H7:H8" si="3">D7*1.07</f>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2560000000000002</v>
+        <f t="shared" ref="I7:I8" si="4">D7*1.1</f>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="2"/>
-        <v>3.7</v>
-      </c>
-      <c r="O7" s="2"/>
+        <f t="shared" ref="J7:J8" si="5">D7*1.25</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1170,17 +1176,17 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
+      <c r="A8" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="3">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="E8" s="4">
         <v>45876</v>
@@ -1192,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1351000000000004</v>
+        <f t="shared" si="3"/>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2230000000000003</v>
+        <f t="shared" si="4"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="2"/>
-        <v>3.6625000000000001</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
@@ -1222,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="E9" s="4">
         <v>45876</v>
@@ -1238,15 +1244,15 @@
       </c>
       <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v>3.1137000000000001</v>
+        <v>3.1672000000000002</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
-        <v>3.2010000000000005</v>
+        <v>3.2560000000000002</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>3.6375000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
@@ -1260,17 +1266,17 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="E10" s="4">
         <v>45876</v>
@@ -1282,18 +1288,18 @@
         <v>7</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" ref="H10" si="3">D10*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="0"/>
+        <v>3.1351000000000004</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" ref="I10" si="4">D10*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="1"/>
+        <v>3.2230000000000003</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" ref="J10" si="5">D10*1.25</f>
-        <v>3.7375000000000003</v>
-      </c>
-      <c r="O10" s="2"/>
+        <f t="shared" si="2"/>
+        <v>3.6625000000000001</v>
+      </c>
+      <c r="O10" s="7"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1312,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E11" s="4">
         <v>45876</v>
@@ -1328,15 +1334,15 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>3.1351000000000004</v>
+        <v>3.1137000000000001</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>3.2230000000000003</v>
+        <v>3.2010000000000005</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="2"/>
-        <v>3.6625000000000001</v>
+        <v>3.6375000000000002</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="1"/>
@@ -1357,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>2.99</v>
@@ -1368,19 +1374,19 @@
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H12" si="6">D12*1.07</f>
         <v>3.1993000000000005</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I12" si="7">D12*1.1</f>
         <v>3.2890000000000006</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J12" si="8">D12*1.25</f>
         <v>3.7375000000000003</v>
       </c>
       <c r="O12" s="2"/>
@@ -1402,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="E13" s="4">
         <v>45876</v>
@@ -1413,20 +1419,20 @@
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" ref="H13:H22" si="6">D13*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="0"/>
+        <v>3.1351000000000004</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" ref="I13:I22" si="7">D13*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="1"/>
+        <v>3.2230000000000003</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" ref="J13:J22" si="8">D13*1.25</f>
-        <v>3.7375000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.6625000000000001</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
@@ -1447,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>2.99</v>
@@ -1462,15 +1468,15 @@
         <v>7</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.1993000000000005</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>3.2890000000000006</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>3.7375000000000003</v>
       </c>
       <c r="O14" s="2"/>
@@ -1489,34 +1495,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="E15" s="4">
         <v>45876</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="6"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" ref="H15:H26" si="9">D15*1.07</f>
+        <v>3.1993000000000005</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="7"/>
-        <v>4.125</v>
+        <f t="shared" ref="I15:I26" si="10">D15*1.1</f>
+        <v>3.2890000000000006</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="8"/>
-        <v>4.6875</v>
+        <f t="shared" ref="J15:J26" si="11">D15*1.25</f>
+        <v>3.7375000000000003</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
@@ -1534,34 +1540,34 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="E16" s="4">
         <v>45876</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="6"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.1993000000000005</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="7"/>
-        <v>4.125</v>
+        <f t="shared" si="10"/>
+        <v>3.2890000000000006</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="8"/>
-        <v>4.6875</v>
+        <f t="shared" si="11"/>
+        <v>3.7375000000000003</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
@@ -1582,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>3.75</v>
@@ -1597,15 +1603,15 @@
         <v>7</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.125</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
       <c r="O17" s="2"/>
@@ -1620,14 +1626,14 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
+      <c r="A18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="3">
         <v>3.75</v>
@@ -1642,15 +1648,15 @@
         <v>7</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.125</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
       <c r="O18" s="2"/>
@@ -1669,70 +1675,90 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="4">
         <v>45876</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="6"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="7"/>
-        <v>4.125</v>
+        <f t="shared" si="10"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="8"/>
-        <v>4.6875</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45876</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="6"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="9"/>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="7"/>
-        <v>4.125</v>
+        <f t="shared" si="10"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" si="8"/>
-        <v>4.6875</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1742,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>3.75</v>
@@ -1757,27 +1783,37 @@
         <v>7</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.125</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
+      <c r="A22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>3.75</v>
@@ -1792,17 +1828,27 @@
         <v>7</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.125</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1812,7 +1858,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>3.75</v>
@@ -1827,15 +1873,15 @@
         <v>7</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" ref="H23:H24" si="9">D23*1.07</f>
+        <f t="shared" si="9"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" ref="I23:I24" si="10">D23*1.1</f>
+        <f t="shared" si="10"/>
         <v>4.125</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" ref="J23:J24" si="11">D23*1.25</f>
+        <f t="shared" si="11"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -1847,7 +1893,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>3.75</v>
@@ -1879,13 +1925,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E25" s="4">
         <v>45876</v>
@@ -1897,16 +1943,16 @@
         <v>7</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" ref="H25:H48" si="12">D25*1.07</f>
-        <v>12.305000000000001</v>
+        <f t="shared" si="9"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:I48" si="13">D25*1.1</f>
-        <v>12.65</v>
+        <f t="shared" si="10"/>
+        <v>4.125</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J48" si="14">D25*1.25</f>
-        <v>14.375</v>
+        <f t="shared" si="11"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -1914,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E26" s="4">
         <v>45876</v>
@@ -1932,16 +1978,16 @@
         <v>7</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="12"/>
-        <v>12.305000000000001</v>
+        <f t="shared" si="9"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="13"/>
-        <v>12.65</v>
+        <f t="shared" si="10"/>
+        <v>4.125</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="14"/>
-        <v>14.375</v>
+        <f t="shared" si="11"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -1949,13 +1995,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E27" s="4">
         <v>45876</v>
@@ -1967,16 +2013,16 @@
         <v>7</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="12"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H27:H28" si="12">D27*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="13"/>
-        <v>12.65</v>
+        <f t="shared" ref="I27:I28" si="13">D27*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="14"/>
-        <v>14.375</v>
+        <f t="shared" ref="J27:J28" si="14">D27*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -1984,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E28" s="4">
         <v>45876</v>
@@ -2003,15 +2049,15 @@
       </c>
       <c r="H28" s="13">
         <f t="shared" si="12"/>
-        <v>12.305000000000001</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="13"/>
-        <v>12.65</v>
+        <v>4.125</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="14"/>
-        <v>14.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2022,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="D29" s="3">
         <v>11.5</v>
@@ -2037,15 +2083,15 @@
         <v>7</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H29:H52" si="15">D29*1.07</f>
         <v>12.305000000000001</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I29:I52" si="16">D29*1.1</f>
         <v>12.65</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J29:J52" si="17">D29*1.25</f>
         <v>14.375</v>
       </c>
     </row>
@@ -2057,7 +2103,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>11.5</v>
@@ -2072,15 +2118,15 @@
         <v>7</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2092,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D31" s="3">
         <v>11.5</v>
@@ -2107,15 +2153,15 @@
         <v>7</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2127,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
         <v>11.5</v>
@@ -2142,15 +2188,15 @@
         <v>7</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2162,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>11.5</v>
@@ -2177,15 +2223,15 @@
         <v>7</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2197,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>11.5</v>
@@ -2212,15 +2258,15 @@
         <v>7</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2232,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
         <v>11.5</v>
@@ -2247,15 +2293,15 @@
         <v>7</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2267,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3">
         <v>11.5</v>
@@ -2282,15 +2328,15 @@
         <v>7</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.65</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2299,13 +2345,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="E37" s="4">
         <v>45876</v>
@@ -2317,16 +2363,16 @@
         <v>7</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>12.65</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2334,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="E38" s="4">
         <v>45876</v>
@@ -2352,16 +2398,16 @@
         <v>7</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>12.65</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2369,13 +2415,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="E39" s="4">
         <v>45876</v>
@@ -2387,16 +2433,16 @@
         <v>7</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>12.65</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2404,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="E40" s="4">
         <v>45876</v>
@@ -2422,16 +2468,16 @@
         <v>7</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>12.65</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2442,10 +2488,10 @@
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="D41" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E41" s="4">
         <v>45876</v>
@@ -2457,16 +2503,16 @@
         <v>7</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,10 +2523,10 @@
         <v>21</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E42" s="4">
         <v>45876</v>
@@ -2492,16 +2538,16 @@
         <v>7</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2512,10 +2558,10 @@
         <v>21</v>
       </c>
       <c r="C43" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D43" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4">
         <v>45876</v>
@@ -2527,16 +2573,16 @@
         <v>7</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,10 +2593,10 @@
         <v>21</v>
       </c>
       <c r="C44" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E44" s="4">
         <v>45876</v>
@@ -2562,16 +2608,16 @@
         <v>7</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2582,10 +2628,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E45" s="4">
         <v>45876</v>
@@ -2597,16 +2643,16 @@
         <v>7</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,10 +2663,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E46" s="4">
         <v>45876</v>
@@ -2632,16 +2678,16 @@
         <v>7</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2652,10 +2698,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E47" s="4">
         <v>45876</v>
@@ -2667,16 +2713,16 @@
         <v>7</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
+        <f t="shared" si="15"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+        <f t="shared" si="17"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,31 +2733,545 @@
         <v>21</v>
       </c>
       <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="15"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="16"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="17"/>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="15"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="16"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="17"/>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="15"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="16"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="17"/>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="15"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="16"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="17"/>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2">
         <v>15</v>
       </c>
-      <c r="D48" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>45876</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="13">
-        <f t="shared" si="12"/>
-        <v>19.795000000000002</v>
-      </c>
-      <c r="I48" s="14">
-        <f t="shared" si="13"/>
-        <v>20.350000000000001</v>
-      </c>
-      <c r="J48" s="14">
-        <f t="shared" si="14"/>
-        <v>23.125</v>
+      <c r="D52" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="15"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="16"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="17"/>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D53" s="3">
+        <v>18</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45901</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="13">
+        <f>D53*1.07</f>
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I53" s="13">
+        <f>D53*1.1</f>
+        <v>19.8</v>
+      </c>
+      <c r="J53" s="14">
+        <f>D53*1.25</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>18</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="13">
+        <f t="shared" ref="H54:H64" si="18">D54*1.07</f>
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" ref="I54:I64" si="19">D54*1.1</f>
+        <v>19.8</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" ref="J54:J64" si="20">D54*1.25</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>18</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="13">
+        <f t="shared" si="18"/>
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="19"/>
+        <v>19.8</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="20"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="13">
+        <f t="shared" si="18"/>
+        <v>19.046000000000003</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="19"/>
+        <v>19.580000000000002</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="20"/>
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="13">
+        <f t="shared" si="18"/>
+        <v>18.725000000000001</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" si="19"/>
+        <v>19.25</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="20"/>
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I59" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I63" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2">
+        <v>15</v>
+      </c>
+      <c r="D64" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="13">
+        <f t="shared" si="18"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I64" s="13">
+        <f t="shared" si="19"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3381EB-17CE-4BE0-8268-88B04572CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3714C0C-B802-4BDC-AB55-87DA0E53D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="42030" yWindow="2670" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="26">
   <si>
     <t>1500X3000</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>MTL</t>
+  </si>
+  <si>
+    <t>szacunek</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J64" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J64" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J67" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J67" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -844,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -913,31 +916,31 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>45570</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="13">
-        <f t="shared" ref="H2:H14" si="0">D2*1.07</f>
-        <v>4.1623000000000001</v>
+        <f t="shared" ref="H2" si="0">D2*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I2" s="14">
         <f>D2*1.1</f>
-        <v>4.2790000000000008</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J2" s="14">
         <f>D2*1.25</f>
-        <v>4.8624999999999998</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1"/>
@@ -950,39 +953,39 @@
       <c r="W2" s="4"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3.98</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45679</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45570</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" si="0"/>
-        <v>4.2586000000000004</v>
+        <f t="shared" ref="H3:H16" si="1">D3*1.07</f>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I14" si="1">D3*1.1</f>
-        <v>4.3780000000000001</v>
+        <f>D3*1.1</f>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J14" si="2">D3*1.25</f>
-        <v>4.9749999999999996</v>
+        <f>D3*1.25</f>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
@@ -995,39 +998,39 @@
       <c r="W3" s="4"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.59</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45580</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45679</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" si="0"/>
-        <v>3.8412999999999999</v>
+        <f t="shared" si="1"/>
+        <v>4.2586000000000004</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" si="1"/>
-        <v>3.9490000000000003</v>
+        <f t="shared" ref="I4:I16" si="2">D4*1.1</f>
+        <v>4.3780000000000001</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="2"/>
-        <v>4.4874999999999998</v>
+        <f t="shared" ref="J4:J16" si="3">D4*1.25</f>
+        <v>4.9749999999999996</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
@@ -1042,37 +1045,37 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D5" s="3">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="E5" s="4">
-        <v>45876</v>
+        <v>45580</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" si="1"/>
+        <v>3.8412999999999999</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="1"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" si="2"/>
+        <v>3.9490000000000003</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>4.4874999999999998</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1"/>
@@ -1093,33 +1096,33 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>45876</v>
+        <v>45570</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="0"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" si="1"/>
+        <v>4.28</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="1"/>
-        <v>3.5200000000000005</v>
+        <f>D6*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O6" s="7"/>
+        <f>D6*1.25</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1138,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>3.2</v>
@@ -1153,18 +1156,18 @@
         <v>7</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" ref="H7:H8" si="3">D7*1.07</f>
+        <f t="shared" si="1"/>
         <v>3.4240000000000004</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" ref="I7:I8" si="4">D7*1.1</f>
+        <f t="shared" si="2"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" ref="J7:J8" si="5">D7*1.25</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1183,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3">
         <v>3.2</v>
@@ -1198,15 +1201,15 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4240000000000004</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
-        <v>3.4240000000000004</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="4"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O8" s="7"/>
@@ -1228,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="E9" s="4">
         <v>45876</v>
@@ -1243,18 +1246,18 @@
         <v>7</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1672000000000002</v>
+        <f t="shared" ref="H9:H10" si="4">D9*1.07</f>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2560000000000002</v>
+        <f t="shared" ref="I9:I10" si="5">D9*1.1</f>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="2"/>
-        <v>3.7</v>
-      </c>
-      <c r="O9" s="2"/>
+        <f t="shared" ref="J9:J10" si="6">D9*1.25</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="7"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1266,17 +1269,17 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="3">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="E10" s="4">
         <v>45876</v>
@@ -1288,16 +1291,16 @@
         <v>7</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1351000000000004</v>
+        <f t="shared" si="4"/>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2230000000000003</v>
+        <f t="shared" si="5"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="2"/>
-        <v>3.6625000000000001</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
@@ -1318,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="E11" s="4">
         <v>45876</v>
@@ -1333,16 +1336,16 @@
         <v>7</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1137000000000001</v>
+        <f t="shared" si="1"/>
+        <v>3.1672000000000002</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2010000000000005</v>
+        <f t="shared" si="2"/>
+        <v>3.2560000000000002</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="2"/>
-        <v>3.6375000000000002</v>
+        <f t="shared" si="3"/>
+        <v>3.7</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="1"/>
@@ -1356,17 +1359,17 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="E12" s="4">
         <v>45876</v>
@@ -1378,18 +1381,18 @@
         <v>7</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" ref="H12" si="6">D12*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.1351000000000004</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" ref="I12" si="7">D12*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="2"/>
+        <v>3.2230000000000003</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12" si="8">D12*1.25</f>
-        <v>3.7375000000000003</v>
-      </c>
-      <c r="O12" s="2"/>
+        <f t="shared" si="3"/>
+        <v>3.6625000000000001</v>
+      </c>
+      <c r="O12" s="7"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1408,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E13" s="4">
         <v>45876</v>
@@ -1423,16 +1426,16 @@
         <v>7</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1351000000000004</v>
+        <f t="shared" si="1"/>
+        <v>3.1137000000000001</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="1"/>
-        <v>3.2230000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.2010000000000005</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="2"/>
-        <v>3.6625000000000001</v>
+        <f t="shared" si="3"/>
+        <v>3.6375000000000002</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
@@ -1453,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3">
         <v>2.99</v>
@@ -1464,19 +1467,19 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H14" si="7">D14*1.07</f>
         <v>3.1993000000000005</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I14" si="8">D14*1.1</f>
         <v>3.2890000000000006</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J14" si="9">D14*1.25</f>
         <v>3.7375000000000003</v>
       </c>
       <c r="O14" s="2"/>
@@ -1498,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="E15" s="4">
         <v>45876</v>
@@ -1509,20 +1512,20 @@
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" ref="H15:H26" si="9">D15*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.1351000000000004</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" ref="I15:I26" si="10">D15*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="2"/>
+        <v>3.2230000000000003</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" ref="J15:J26" si="11">D15*1.25</f>
-        <v>3.7375000000000003</v>
+        <f t="shared" si="3"/>
+        <v>3.6625000000000001</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
@@ -1543,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>2.99</v>
@@ -1558,15 +1561,15 @@
         <v>7</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3.1993000000000005</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3.2890000000000006</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3.7375000000000003</v>
       </c>
       <c r="O16" s="2"/>
@@ -1585,34 +1588,34 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="E17" s="4">
         <v>45876</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="9"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" ref="H17:H29" si="10">D17*1.07</f>
+        <v>3.1993000000000005</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="10"/>
-        <v>4.125</v>
+        <f t="shared" ref="I17:I29" si="11">D17*1.1</f>
+        <v>3.2890000000000006</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="11"/>
-        <v>4.6875</v>
+        <f t="shared" ref="J17:J29" si="12">D17*1.25</f>
+        <v>3.7375000000000003</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
@@ -1630,34 +1633,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="E18" s="4">
         <v>45876</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="9"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="10"/>
+        <v>3.1993000000000005</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="10"/>
-        <v>4.125</v>
+        <f t="shared" si="11"/>
+        <v>3.2890000000000006</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="11"/>
-        <v>4.6875</v>
+        <f t="shared" si="12"/>
+        <v>3.7375000000000003</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
@@ -1675,34 +1678,34 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
         <v>45876</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="9"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4.28</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="10"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" si="11"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="1"/>
@@ -1720,34 +1723,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="E20" s="4">
         <v>45876</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="9"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" ref="H20" si="13">D20*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="10"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" ref="I20" si="14">D20*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" ref="J20" si="15">D20*1.25</f>
+        <v>4.6875</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="1"/>
@@ -1768,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="3">
         <v>3.75</v>
@@ -1783,15 +1786,15 @@
         <v>7</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
       <c r="O21" s="2"/>
@@ -1806,38 +1809,38 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
+      <c r="A22" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="10"/>
+        <v>3.4240000000000004</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="11"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="12"/>
         <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45876</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="9"/>
-        <v>4.0125000000000002</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="10"/>
-        <v>4.125</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="11"/>
-        <v>4.6875</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="1"/>
@@ -1855,35 +1858,45 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D23" s="3">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="E23" s="4">
         <v>45876</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="9"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="10"/>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="10"/>
-        <v>4.125</v>
+        <f t="shared" si="11"/>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="11"/>
-        <v>4.6875</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1893,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>3.75</v>
@@ -1908,27 +1921,37 @@
         <v>7</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>1</v>
+      <c r="A25" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>3.75</v>
@@ -1943,17 +1966,27 @@
         <v>7</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1963,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
         <v>3.75</v>
@@ -1978,15 +2011,15 @@
         <v>7</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -1998,7 +2031,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
         <v>3.75</v>
@@ -2013,15 +2046,15 @@
         <v>7</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" ref="H27:H28" si="12">D27*1.07</f>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" ref="I27:I28" si="13">D27*1.1</f>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" ref="J27:J28" si="14">D27*1.25</f>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2033,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <v>3.75</v>
@@ -2048,15 +2081,15 @@
         <v>7</v>
       </c>
       <c r="H28" s="13">
+        <f t="shared" si="10"/>
+        <v>4.0125000000000002</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="11"/>
+        <v>4.125</v>
+      </c>
+      <c r="J28" s="14">
         <f t="shared" si="12"/>
-        <v>4.0125000000000002</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="13"/>
-        <v>4.125</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="14"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2065,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E29" s="4">
         <v>45876</v>
@@ -2083,16 +2116,16 @@
         <v>7</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" ref="H29:H52" si="15">D29*1.07</f>
-        <v>12.305000000000001</v>
+        <f t="shared" si="10"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29:I52" si="16">D29*1.1</f>
-        <v>12.65</v>
+        <f t="shared" si="11"/>
+        <v>4.125</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29:J52" si="17">D29*1.25</f>
-        <v>14.375</v>
+        <f t="shared" si="12"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2100,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E30" s="4">
         <v>45876</v>
@@ -2118,16 +2151,16 @@
         <v>7</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="15"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H30:H31" si="16">D30*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="16"/>
-        <v>12.65</v>
+        <f t="shared" ref="I30:I31" si="17">D30*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="17"/>
-        <v>14.375</v>
+        <f t="shared" ref="J30:J31" si="18">D30*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2135,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E31" s="4">
         <v>45876</v>
@@ -2153,16 +2186,16 @@
         <v>7</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="15"/>
-        <v>12.305000000000001</v>
+        <f t="shared" si="16"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="16"/>
-        <v>12.65</v>
+        <f t="shared" si="17"/>
+        <v>4.125</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="17"/>
-        <v>14.375</v>
+        <f t="shared" si="18"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2173,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D32" s="3">
         <v>11.5</v>
@@ -2188,15 +2221,15 @@
         <v>7</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H32:H55" si="19">D32*1.07</f>
         <v>12.305000000000001</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I32:I55" si="20">D32*1.1</f>
         <v>12.65</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J32:J55" si="21">D32*1.25</f>
         <v>14.375</v>
       </c>
     </row>
@@ -2208,7 +2241,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
         <v>11.5</v>
@@ -2223,15 +2256,15 @@
         <v>7</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2243,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D34" s="3">
         <v>11.5</v>
@@ -2258,15 +2291,15 @@
         <v>7</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2278,7 +2311,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
         <v>11.5</v>
@@ -2293,15 +2326,15 @@
         <v>7</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2313,7 +2346,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
         <v>11.5</v>
@@ -2328,15 +2361,15 @@
         <v>7</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2348,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
         <v>11.5</v>
@@ -2363,15 +2396,15 @@
         <v>7</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2383,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
         <v>11.5</v>
@@ -2398,15 +2431,15 @@
         <v>7</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2418,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
         <v>11.5</v>
@@ -2433,15 +2466,15 @@
         <v>7</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2453,7 +2486,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3">
         <v>11.5</v>
@@ -2468,15 +2501,15 @@
         <v>7</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.65</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2485,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E41" s="4">
         <v>45876</v>
@@ -2503,16 +2536,16 @@
         <v>7</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="15"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="19"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="16"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="20"/>
+        <v>12.65</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="17"/>
-        <v>21.25</v>
+        <f t="shared" si="21"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2520,13 +2553,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E42" s="4">
         <v>45876</v>
@@ -2538,16 +2571,16 @@
         <v>7</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="15"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="19"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="16"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="20"/>
+        <v>12.65</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="17"/>
-        <v>21.25</v>
+        <f t="shared" si="21"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2555,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E43" s="4">
         <v>45876</v>
@@ -2573,16 +2606,16 @@
         <v>7</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="15"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="19"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="16"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="20"/>
+        <v>12.65</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="17"/>
-        <v>21.25</v>
+        <f t="shared" si="21"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D44" s="3">
         <v>17</v>
@@ -2608,15 +2641,15 @@
         <v>7</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2628,7 +2661,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>17</v>
@@ -2643,15 +2676,15 @@
         <v>7</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2663,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D46" s="3">
         <v>17</v>
@@ -2678,15 +2711,15 @@
         <v>7</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2698,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3">
         <v>17</v>
@@ -2713,15 +2746,15 @@
         <v>7</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2733,10 +2766,10 @@
         <v>21</v>
       </c>
       <c r="C48" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E48" s="4">
         <v>45876</v>
@@ -2748,16 +2781,16 @@
         <v>7</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="15"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="19"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="16"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="20"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="17"/>
-        <v>20.625</v>
+        <f t="shared" si="21"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2768,10 +2801,10 @@
         <v>21</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E49" s="4">
         <v>45876</v>
@@ -2783,16 +2816,16 @@
         <v>7</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="15"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="19"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="16"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="20"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="17"/>
-        <v>20.625</v>
+        <f t="shared" si="21"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2803,10 +2836,10 @@
         <v>21</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E50" s="4">
         <v>45876</v>
@@ -2818,16 +2851,16 @@
         <v>7</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="15"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="19"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="16"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="20"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="17"/>
-        <v>20.625</v>
+        <f t="shared" si="21"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,7 +2871,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D51" s="3">
         <v>16.5</v>
@@ -2853,15 +2886,15 @@
         <v>7</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17.655000000000001</v>
       </c>
       <c r="I51" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.150000000000002</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20.625</v>
       </c>
     </row>
@@ -2873,7 +2906,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3">
         <v>16.5</v>
@@ -2888,15 +2921,15 @@
         <v>7</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17.655000000000001</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.150000000000002</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20.625</v>
       </c>
     </row>
@@ -2905,32 +2938,34 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="E53" s="4">
-        <v>45901</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>45876</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H53" s="13">
-        <f>D53*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I53" s="13">
-        <f>D53*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="19"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="20"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J53" s="14">
-        <f>D53*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="21"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,30 +2973,34 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3">
-        <v>18</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H54" s="13">
-        <f t="shared" ref="H54:H64" si="18">D54*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I54" s="13">
-        <f t="shared" ref="I54:I64" si="19">D54*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="19"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I54" s="14">
+        <f t="shared" si="20"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" ref="J54:J64" si="20">D54*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="21"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2969,30 +3008,34 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3">
-        <v>18</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H55" s="13">
-        <f t="shared" si="18"/>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I55" s="13">
         <f t="shared" si="19"/>
-        <v>19.8</v>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="20"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J55" s="14">
-        <f t="shared" si="20"/>
-        <v>22.5</v>
+        <f t="shared" si="21"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,27 +3046,29 @@
         <v>23</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D56" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E56" s="4">
+        <v>45901</v>
+      </c>
       <c r="F56" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="13">
-        <f t="shared" si="18"/>
-        <v>19.046000000000003</v>
+        <f>D56*1.07</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="19"/>
-        <v>19.580000000000002</v>
+        <f>D56*1.1</f>
+        <v>19.8</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="20"/>
-        <v>22.25</v>
+        <f>D56*1.25</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,10 +3079,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="13" t="s">
@@ -3045,16 +3090,16 @@
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13">
-        <f t="shared" si="18"/>
-        <v>18.725000000000001</v>
+        <f t="shared" ref="H57:H67" si="22">D57*1.07</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="19"/>
-        <v>19.25</v>
+        <f t="shared" ref="I57:I67" si="23">D57*1.1</f>
+        <v>19.8</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="20"/>
-        <v>21.875</v>
+        <f t="shared" ref="J57:J67" si="24">D57*1.25</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3065,10 +3110,10 @@
         <v>23</v>
       </c>
       <c r="C58" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D58" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="13" t="s">
@@ -3076,16 +3121,16 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="13">
-        <f t="shared" si="18"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="22"/>
+        <v>19.260000000000002</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="19"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="23"/>
+        <v>19.8</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="24"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3096,10 +3141,10 @@
         <v>23</v>
       </c>
       <c r="C59" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="13" t="s">
@@ -3107,16 +3152,16 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="13">
-        <f t="shared" si="18"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="22"/>
+        <v>19.046000000000003</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="19"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="23"/>
+        <v>19.580000000000002</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="24"/>
+        <v>22.25</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3127,10 +3172,10 @@
         <v>23</v>
       </c>
       <c r="C60" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" s="3">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="13" t="s">
@@ -3138,16 +3183,16 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="13">
-        <f t="shared" si="18"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="22"/>
+        <v>18.725000000000001</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="19"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="23"/>
+        <v>19.25</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="24"/>
+        <v>21.875</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3203,7 @@
         <v>23</v>
       </c>
       <c r="C61" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3">
         <v>16.8</v>
@@ -3169,15 +3214,15 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J61" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
     </row>
@@ -3189,7 +3234,7 @@
         <v>23</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3">
         <v>16.8</v>
@@ -3200,15 +3245,15 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
     </row>
@@ -3220,7 +3265,7 @@
         <v>23</v>
       </c>
       <c r="C63" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D63" s="3">
         <v>16.8</v>
@@ -3231,15 +3276,15 @@
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
     </row>
@@ -3251,7 +3296,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D64" s="3">
         <v>16.8</v>
@@ -3262,15 +3307,108 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="13">
+        <f t="shared" si="22"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I65" s="13">
+        <f t="shared" si="23"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="13">
+        <f t="shared" si="22"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I66" s="13">
+        <f t="shared" si="23"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2">
+        <v>15</v>
+      </c>
+      <c r="D67" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="13">
+        <f t="shared" si="22"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I67" s="13">
+        <f t="shared" si="23"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
     </row>

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3714C0C-B802-4BDC-AB55-87DA0E53D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE8E6C-C847-4891-B993-445F2C52F88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42030" yWindow="2670" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="42615" yWindow="2025" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="26">
   <si>
     <t>1500X3000</t>
   </si>
@@ -506,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J67" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J67" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J73" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -847,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E7" s="4">
         <v>45876</v>
@@ -1157,15 +1157,15 @@
       </c>
       <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>3.4240000000000004</v>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="2"/>
-        <v>3.5200000000000005</v>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
@@ -1189,7 +1189,7 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E8" s="4">
         <v>45876</v>
@@ -1202,15 +1202,15 @@
       </c>
       <c r="H8" s="13">
         <f t="shared" si="1"/>
-        <v>3.4240000000000004</v>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="2"/>
-        <v>3.5200000000000005</v>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E9" s="4">
         <v>45876</v>
@@ -1247,15 +1247,15 @@
       </c>
       <c r="H9" s="13">
         <f t="shared" ref="H9:H10" si="4">D9*1.07</f>
-        <v>3.4240000000000004</v>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" ref="I9:I10" si="5">D9*1.1</f>
-        <v>3.5200000000000005</v>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" ref="J9:J10" si="6">D9*1.25</f>
-        <v>4</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
@@ -1606,15 +1606,15 @@
         <v>7</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" ref="H17:H29" si="10">D17*1.07</f>
+        <f t="shared" ref="H17:H32" si="10">D17*1.07</f>
         <v>3.1993000000000005</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" ref="I17:I29" si="11">D17*1.1</f>
+        <f t="shared" ref="I17:I32" si="11">D17*1.1</f>
         <v>3.2890000000000006</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" ref="J17:J29" si="12">D17*1.25</f>
+        <f t="shared" ref="J17:J32" si="12">D17*1.25</f>
         <v>3.7375000000000003</v>
       </c>
       <c r="O17" s="2"/>
@@ -1678,34 +1678,34 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>2.99</v>
       </c>
       <c r="E19" s="4">
         <v>45876</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="10"/>
-        <v>4.28</v>
+        <f t="shared" ref="H19" si="13">D19*1.07</f>
+        <v>3.1993000000000005</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" ref="I19" si="14">D19*1.1</f>
+        <v>3.2890000000000006</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" ref="J19" si="15">D19*1.25</f>
+        <v>3.7375000000000003</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="1"/>
@@ -1723,34 +1723,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
         <v>45876</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" ref="H20" si="13">D20*1.07</f>
-        <v>4.0125000000000002</v>
+        <f t="shared" ref="H20" si="16">D20*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" ref="I20" si="14">D20*1.1</f>
-        <v>4.125</v>
+        <f t="shared" ref="I20" si="17">D20*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20" si="15">D20*1.25</f>
-        <v>4.6875</v>
+        <f t="shared" ref="J20" si="18">D20*1.25</f>
+        <v>5</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="1"/>
@@ -1768,34 +1768,34 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4">
         <v>45876</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="10"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" ref="H21" si="19">D21*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="11"/>
-        <v>4.125</v>
+        <f t="shared" ref="I21" si="20">D21*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="12"/>
-        <v>4.6875</v>
+        <f t="shared" ref="J21" si="21">D21*1.25</f>
+        <v>5</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="1"/>
@@ -1813,34 +1813,34 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
         <v>45876</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="10"/>
-        <v>3.4240000000000004</v>
+        <v>4.28</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="11"/>
-        <v>3.5200000000000005</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="1"/>
@@ -1858,34 +1858,34 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E23" s="4">
         <v>45876</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="10"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" ref="H23" si="22">D23*1.07</f>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="11"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" ref="I23" si="23">D23*1.1</f>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" ref="J23" si="24">D23*1.25</f>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="1"/>
@@ -1906,10 +1906,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D24" s="3">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="E24" s="4">
         <v>45876</v>
@@ -1922,15 +1922,15 @@
       </c>
       <c r="H24" s="13">
         <f t="shared" si="10"/>
-        <v>4.0125000000000002</v>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="11"/>
-        <v>4.125</v>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="12"/>
-        <v>4.6875</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="1"/>
@@ -1944,38 +1944,38 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
+      <c r="A25" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="E25" s="4">
         <v>45876</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="10"/>
-        <v>4.0125000000000002</v>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="11"/>
-        <v>4.125</v>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="12"/>
-        <v>4.6875</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="1"/>
@@ -1993,35 +1993,45 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D26" s="3">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="E26" s="4">
         <v>45876</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="10"/>
-        <v>4.0125000000000002</v>
+        <v>3.4240000000000004</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="11"/>
-        <v>4.125</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="12"/>
-        <v>4.6875</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2031,7 +2041,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>3.75</v>
@@ -2057,16 +2067,26 @@
         <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
+      <c r="A28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>3.75</v>
@@ -2092,6 +2112,16 @@
         <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2101,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>3.75</v>
@@ -2136,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3">
         <v>3.75</v>
@@ -2151,15 +2181,15 @@
         <v>7</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" ref="H30:H31" si="16">D30*1.07</f>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" ref="I30:I31" si="17">D30*1.1</f>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" ref="J30:J31" si="18">D30*1.25</f>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2171,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <v>3.75</v>
@@ -2186,15 +2216,15 @@
         <v>7</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.125</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2203,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E32" s="4">
         <v>45876</v>
@@ -2221,16 +2251,16 @@
         <v>7</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" ref="H32:H55" si="19">D32*1.07</f>
-        <v>12.305000000000001</v>
+        <f t="shared" si="10"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" ref="I32:I55" si="20">D32*1.1</f>
-        <v>12.65</v>
+        <f t="shared" si="11"/>
+        <v>4.125</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32:J55" si="21">D32*1.25</f>
-        <v>14.375</v>
+        <f t="shared" si="12"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2238,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E33" s="4">
         <v>45876</v>
@@ -2256,16 +2286,16 @@
         <v>7</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="19"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H33:H34" si="25">D33*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="20"/>
-        <v>12.65</v>
+        <f t="shared" ref="I33:I34" si="26">D33*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="21"/>
-        <v>14.375</v>
+        <f t="shared" ref="J33:J34" si="27">D33*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,13 +2303,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E34" s="4">
         <v>45876</v>
@@ -2291,16 +2321,16 @@
         <v>7</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="19"/>
-        <v>12.305000000000001</v>
+        <f t="shared" si="25"/>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="20"/>
-        <v>12.65</v>
+        <f t="shared" si="26"/>
+        <v>4.125</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="21"/>
-        <v>14.375</v>
+        <f t="shared" si="27"/>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E35" s="4">
         <v>45876</v>
@@ -2326,16 +2356,16 @@
         <v>7</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="19"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H35" si="28">D35*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" si="20"/>
-        <v>12.65</v>
+        <f t="shared" ref="I35" si="29">D35*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="21"/>
-        <v>14.375</v>
+        <f t="shared" ref="J35" si="30">D35*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2343,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
       <c r="D36" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E36" s="4">
         <v>45876</v>
@@ -2361,16 +2391,16 @@
         <v>7</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="19"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H36" si="31">D36*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="20"/>
-        <v>12.65</v>
+        <f t="shared" ref="I36" si="32">D36*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="21"/>
-        <v>14.375</v>
+        <f t="shared" ref="J36" si="33">D36*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2378,14 +2408,14 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3">
         <v>4</v>
       </c>
-      <c r="D37" s="3">
-        <v>11.5</v>
-      </c>
       <c r="E37" s="4">
         <v>45876</v>
       </c>
@@ -2396,16 +2426,16 @@
         <v>7</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="19"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H37" si="34">D37*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="20"/>
-        <v>12.65</v>
+        <f t="shared" ref="I37" si="35">D37*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="21"/>
-        <v>14.375</v>
+        <f t="shared" ref="J37" si="36">D37*1.25</f>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2416,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D38" s="3">
         <v>11.5</v>
@@ -2431,15 +2461,15 @@
         <v>7</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H38:H61" si="37">D38*1.07</f>
         <v>12.305000000000001</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I38:I61" si="38">D38*1.1</f>
         <v>12.65</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J38:J61" si="39">D38*1.25</f>
         <v>14.375</v>
       </c>
     </row>
@@ -2451,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <v>11.5</v>
@@ -2466,15 +2496,15 @@
         <v>7</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>12.65</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2486,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="3">
         <v>11.5</v>
@@ -2501,15 +2531,15 @@
         <v>7</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>12.65</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2521,7 +2551,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
         <v>11.5</v>
@@ -2536,15 +2566,15 @@
         <v>7</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>12.65</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2556,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
         <v>11.5</v>
@@ -2571,15 +2601,15 @@
         <v>7</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>12.65</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2591,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
         <v>11.5</v>
@@ -2606,15 +2636,15 @@
         <v>7</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>12.65</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2623,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="2">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E44" s="4">
         <v>45876</v>
@@ -2641,16 +2671,16 @@
         <v>7</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2658,13 +2688,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E45" s="4">
         <v>45876</v>
@@ -2676,16 +2706,16 @@
         <v>7</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,13 +2723,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="D46" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E46" s="4">
         <v>45876</v>
@@ -2711,16 +2741,16 @@
         <v>7</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E47" s="4">
         <v>45876</v>
@@ -2746,16 +2776,16 @@
         <v>7</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2763,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E48" s="4">
         <v>45876</v>
@@ -2781,16 +2811,16 @@
         <v>7</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2798,13 +2828,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E49" s="4">
         <v>45876</v>
@@ -2816,16 +2846,16 @@
         <v>7</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="19"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="37"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="20"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="38"/>
+        <v>12.65</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="21"/>
-        <v>21.25</v>
+        <f t="shared" si="39"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2836,7 +2866,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D50" s="3">
         <v>17</v>
@@ -2851,15 +2881,15 @@
         <v>7</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2871,10 +2901,10 @@
         <v>21</v>
       </c>
       <c r="C51" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E51" s="4">
         <v>45876</v>
@@ -2886,16 +2916,16 @@
         <v>7</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="19"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I51" s="14">
-        <f t="shared" si="20"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="21"/>
-        <v>20.625</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2906,10 +2936,10 @@
         <v>21</v>
       </c>
       <c r="C52" s="2">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="D52" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E52" s="4">
         <v>45876</v>
@@ -2921,16 +2951,16 @@
         <v>7</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="19"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="20"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="21"/>
-        <v>20.625</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,10 +2971,10 @@
         <v>21</v>
       </c>
       <c r="C53" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E53" s="4">
         <v>45876</v>
@@ -2956,16 +2986,16 @@
         <v>7</v>
       </c>
       <c r="H53" s="13">
-        <f t="shared" si="19"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" si="20"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="21"/>
-        <v>20.625</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,10 +3006,10 @@
         <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E54" s="4">
         <v>45876</v>
@@ -2991,16 +3021,16 @@
         <v>7</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="19"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="20"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="21"/>
-        <v>20.625</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3011,10 +3041,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E55" s="4">
         <v>45876</v>
@@ -3026,16 +3056,16 @@
         <v>7</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="19"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I55" s="14">
-        <f t="shared" si="20"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J55" s="14">
-        <f t="shared" si="21"/>
-        <v>20.625</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3043,32 +3073,34 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="4">
-        <v>45901</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>45876</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H56" s="13">
-        <f>D56*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I56" s="13">
-        <f>D56*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="37"/>
+        <v>18.190000000000001</v>
+      </c>
+      <c r="I56" s="14">
+        <f t="shared" si="38"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J56" s="14">
-        <f>D56*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="39"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,30 +3108,34 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" s="3">
-        <v>18</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H57" s="13">
-        <f t="shared" ref="H57:H67" si="22">D57*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I57" s="13">
-        <f t="shared" ref="I57:I67" si="23">D57*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="37"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I57" s="14">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" ref="J57:J67" si="24">D57*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="39"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3107,30 +3143,34 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="D58" s="3">
-        <v>18</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H58" s="13">
-        <f t="shared" si="22"/>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I58" s="13">
-        <f t="shared" si="23"/>
-        <v>19.8</v>
+        <f t="shared" si="37"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I58" s="14">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="24"/>
-        <v>22.5</v>
+        <f t="shared" si="39"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3138,30 +3178,34 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E59" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H59" s="13">
-        <f t="shared" si="22"/>
-        <v>19.046000000000003</v>
-      </c>
-      <c r="I59" s="13">
-        <f t="shared" si="23"/>
-        <v>19.580000000000002</v>
+        <f t="shared" si="37"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I59" s="14">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="24"/>
-        <v>22.25</v>
+        <f t="shared" si="39"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3169,30 +3213,34 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D60" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E60" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H60" s="13">
-        <f t="shared" si="22"/>
-        <v>18.725000000000001</v>
-      </c>
-      <c r="I60" s="13">
-        <f t="shared" si="23"/>
-        <v>19.25</v>
+        <f t="shared" si="37"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I60" s="14">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="24"/>
-        <v>21.875</v>
+        <f t="shared" si="39"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3200,30 +3248,34 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D61" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H61" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
-      </c>
-      <c r="I61" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="37"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I61" s="14">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J61" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="39"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,27 +3286,29 @@
         <v>23</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D62" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E62" s="4">
+        <v>45901</v>
+      </c>
       <c r="F62" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
+        <f>D62*1.07</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f>D62*1.1</f>
+        <v>19.8</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f>D62*1.25</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3265,10 +3319,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="13" t="s">
@@ -3276,16 +3330,16 @@
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
+        <f t="shared" ref="H63:H73" si="40">D63*1.07</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f t="shared" ref="I63:I73" si="41">D63*1.1</f>
+        <v>19.8</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" ref="J63:J73" si="42">D63*1.25</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,10 +3350,10 @@
         <v>23</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="D64" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="13" t="s">
@@ -3307,16 +3361,16 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="40"/>
+        <v>19.260000000000002</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="41"/>
+        <v>19.8</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="42"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,10 +3381,10 @@
         <v>23</v>
       </c>
       <c r="C65" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="13" t="s">
@@ -3338,16 +3392,16 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="40"/>
+        <v>19.046000000000003</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="41"/>
+        <v>19.580000000000002</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="42"/>
+        <v>22.25</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,10 +3412,10 @@
         <v>23</v>
       </c>
       <c r="C66" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="13" t="s">
@@ -3369,16 +3423,16 @@
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="13">
-        <f t="shared" si="22"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="40"/>
+        <v>18.725000000000001</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="23"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="41"/>
+        <v>19.25</v>
       </c>
       <c r="J66" s="14">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="42"/>
+        <v>21.875</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,7 +3443,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D67" s="3">
         <v>16.8</v>
@@ -3400,15 +3454,201 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I69" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I70" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I71" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>15</v>
+      </c>
+      <c r="D73" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="13">
+        <f t="shared" si="40"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I73" s="13">
+        <f t="shared" si="41"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="42"/>
         <v>21</v>
       </c>
     </row>

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE8E6C-C847-4891-B993-445F2C52F88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D6AAF1-8C52-4CA7-A287-D4967303281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42615" yWindow="2025" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="41655" yWindow="1905" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="28">
   <si>
     <t>1500X3000</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>szacunek</t>
+  </si>
+  <si>
+    <t>Centr. Bol</t>
+  </si>
+  <si>
+    <t>S235 Ryflowana</t>
   </si>
 </sst>
 </file>
@@ -506,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J73" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J76" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J76" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -964,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>45570</v>
@@ -976,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H16" si="1">D3*1.07</f>
-        <v>4.1623000000000001</v>
+        <f t="shared" ref="H3:H18" si="1">D3*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I3" s="14">
         <f>D3*1.1</f>
-        <v>4.2790000000000008</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J3" s="14">
         <f>D3*1.25</f>
-        <v>4.8624999999999998</v>
+        <v>5</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
@@ -1009,7 +1015,7 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="10">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="E4" s="11">
         <v>45679</v>
@@ -1022,15 +1028,15 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="1"/>
-        <v>4.2586000000000004</v>
+        <v>4.28</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I16" si="2">D4*1.1</f>
-        <v>4.3780000000000001</v>
+        <f t="shared" ref="I4:I18" si="2">D4*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J16" si="3">D4*1.25</f>
-        <v>4.9749999999999996</v>
+        <f t="shared" ref="J4:J18" si="3">D4*1.25</f>
+        <v>5</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
@@ -1043,39 +1049,39 @@
       <c r="W4" s="4"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.59</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45580</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45679</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="1"/>
-        <v>3.8412999999999999</v>
+        <f t="shared" ref="H5" si="4">D5*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="2"/>
-        <v>3.9490000000000003</v>
+        <f t="shared" ref="I5" si="5">D5*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="3"/>
-        <v>4.4874999999999998</v>
+        <f t="shared" ref="J5" si="6">D5*1.25</f>
+        <v>5</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1"/>
@@ -1088,38 +1094,38 @@
       <c r="W5" s="4"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="6" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
-        <v>45570</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45679</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H6" si="7">D6*1.07</f>
         <v>4.28</v>
       </c>
       <c r="I6" s="14">
-        <f>D6*1.1</f>
+        <f t="shared" ref="I6" si="8">D6*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="J6" s="14">
-        <f>D6*1.25</f>
+        <f t="shared" ref="J6" si="9">D6*1.25</f>
         <v>5</v>
       </c>
       <c r="O6" s="2"/>
@@ -1135,37 +1141,37 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
-        <v>45876</v>
+        <v>45580</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>4.1623000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="2"/>
-        <v>4.2790000000000008</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="3"/>
-        <v>4.8624999999999998</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
@@ -1186,33 +1192,33 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>45876</v>
+        <v>45570</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="1"/>
-        <v>4.1623000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="2"/>
-        <v>4.2790000000000008</v>
+        <f>D8*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="3"/>
-        <v>4.8624999999999998</v>
-      </c>
-      <c r="O8" s="7"/>
+        <f>D8*1.25</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1231,33 +1237,33 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>3.89</v>
       </c>
       <c r="E9" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" ref="H9:H10" si="4">D9*1.07</f>
+        <f t="shared" si="1"/>
         <v>4.1623000000000001</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:I10" si="5">D9*1.1</f>
+        <f t="shared" si="2"/>
         <v>4.2790000000000008</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" ref="J9:J10" si="6">D9*1.25</f>
+        <f t="shared" si="3"/>
         <v>4.8624999999999998</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1276,31 +1282,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E10" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="4"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" si="1"/>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="5"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" si="2"/>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
@@ -1321,33 +1327,33 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>2.96</v>
+        <v>3.89</v>
       </c>
       <c r="E11" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1672000000000002</v>
+        <f t="shared" ref="H11:H12" si="10">D11*1.07</f>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="2"/>
-        <v>3.2560000000000002</v>
+        <f t="shared" ref="I11:I12" si="11">D11*1.1</f>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
-      <c r="O11" s="2"/>
+        <f t="shared" ref="J11:J12" si="12">D11*1.25</f>
+        <v>4.8624999999999998</v>
+      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1359,38 +1365,38 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
+      <c r="A12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D12" s="3">
-        <v>2.93</v>
+        <v>3.49</v>
       </c>
       <c r="E12" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1351000000000004</v>
+        <f t="shared" si="10"/>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="2"/>
-        <v>3.2230000000000003</v>
+        <f t="shared" si="11"/>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="3"/>
-        <v>3.6625000000000001</v>
+        <f t="shared" si="12"/>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
@@ -1411,31 +1417,31 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="E13" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>3.1137000000000001</v>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="2"/>
-        <v>3.2010000000000005</v>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="3"/>
-        <v>3.6375000000000002</v>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
@@ -1449,40 +1455,40 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="E14" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" ref="H14" si="7">D14*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" ref="I14" si="8">D14*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="2"/>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" ref="J14" si="9">D14*1.25</f>
-        <v>3.7375000000000003</v>
-      </c>
-      <c r="O14" s="2"/>
+        <f t="shared" si="3"/>
+        <v>4.3625000000000007</v>
+      </c>
+      <c r="O14" s="7"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1501,31 +1507,31 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>2.93</v>
+        <v>3.49</v>
       </c>
       <c r="E15" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
-        <v>3.1351000000000004</v>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="2"/>
-        <v>3.2230000000000003</v>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="3"/>
-        <v>3.6625000000000001</v>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
@@ -1546,31 +1552,31 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="E16" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1993000000000005</v>
+        <f t="shared" ref="H16" si="13">D16*1.07</f>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="2"/>
-        <v>3.2890000000000006</v>
+        <f t="shared" ref="I16" si="14">D16*1.1</f>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="3"/>
-        <v>3.7375000000000003</v>
+        <f t="shared" ref="J16" si="15">D16*1.25</f>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
@@ -1591,31 +1597,31 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="E17" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" ref="H17:H32" si="10">D17*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" ref="I17:I32" si="11">D17*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="2"/>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" ref="J17:J32" si="12">D17*1.25</f>
-        <v>3.7375000000000003</v>
+        <f t="shared" si="3"/>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
@@ -1636,31 +1642,31 @@
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="E18" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="10"/>
-        <v>3.1993000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="11"/>
-        <v>3.2890000000000006</v>
+        <f t="shared" si="2"/>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="12"/>
-        <v>3.7375000000000003</v>
+        <f t="shared" si="3"/>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
@@ -1681,31 +1687,31 @@
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="E19" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" ref="H19" si="13">D19*1.07</f>
-        <v>3.1993000000000005</v>
+        <f t="shared" ref="H19:H34" si="16">D19*1.07</f>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" ref="I19" si="14">D19*1.1</f>
-        <v>3.2890000000000006</v>
+        <f t="shared" ref="I19:I34" si="17">D19*1.1</f>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" ref="J19" si="15">D19*1.25</f>
-        <v>3.7375000000000003</v>
+        <f t="shared" ref="J19:J34" si="18">D19*1.25</f>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="1"/>
@@ -1726,31 +1732,31 @@
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>3.49</v>
       </c>
       <c r="E20" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" ref="H20" si="16">D20*1.07</f>
-        <v>4.28</v>
+        <f t="shared" si="16"/>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" ref="I20" si="17">D20*1.1</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="17"/>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20" si="18">D20*1.25</f>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="1"/>
@@ -1771,31 +1777,31 @@
         <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>3.49</v>
       </c>
       <c r="E21" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" ref="H21" si="19">D21*1.07</f>
-        <v>4.28</v>
+        <v>3.7343000000000006</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" ref="I21" si="20">D21*1.1</f>
-        <v>4.4000000000000004</v>
+        <v>3.8390000000000004</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" ref="J21" si="21">D21*1.25</f>
-        <v>5</v>
+        <v>4.3625000000000007</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="1"/>
@@ -1813,33 +1819,33 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H22" si="22">D22*1.07</f>
         <v>4.28</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I22" si="23">D22*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J22" si="24">D22*1.25</f>
         <v>5</v>
       </c>
       <c r="O22" s="2"/>
@@ -1858,34 +1864,34 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E23" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" ref="H23" si="22">D23*1.07</f>
-        <v>4.1623000000000001</v>
+        <f t="shared" ref="H23" si="25">D23*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" ref="I23" si="23">D23*1.1</f>
-        <v>4.2790000000000008</v>
+        <f t="shared" ref="I23" si="26">D23*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" ref="J23" si="24">D23*1.25</f>
-        <v>4.8624999999999998</v>
+        <f t="shared" ref="J23" si="27">D23*1.25</f>
+        <v>5</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="1"/>
@@ -1906,10 +1912,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="3">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E24" s="4">
         <v>45876</v>
@@ -1921,16 +1927,16 @@
         <v>7</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="10"/>
-        <v>4.1623000000000001</v>
+        <f t="shared" si="16"/>
+        <v>4.28</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="11"/>
-        <v>4.2790000000000008</v>
+        <f t="shared" si="17"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="12"/>
-        <v>4.8624999999999998</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="1"/>
@@ -1948,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>3.89</v>
@@ -1960,21 +1966,21 @@
         <v>45876</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H25" si="28">D25*1.07</f>
         <v>4.1623000000000001</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I25" si="29">D25*1.1</f>
         <v>4.2790000000000008</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J25" si="30">D25*1.25</f>
         <v>4.8624999999999998</v>
       </c>
       <c r="O25" s="2"/>
@@ -1993,34 +1999,34 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="3">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="E26" s="4">
         <v>45876</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="10"/>
-        <v>3.4240000000000004</v>
+        <f t="shared" si="16"/>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="11"/>
-        <v>3.5200000000000005</v>
+        <f t="shared" si="17"/>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="1"/>
@@ -2038,34 +2044,34 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="E27" s="4">
         <v>45876</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="10"/>
-        <v>4.0125000000000002</v>
+        <f t="shared" si="16"/>
+        <v>4.1623000000000001</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="11"/>
-        <v>4.125</v>
+        <f t="shared" si="17"/>
+        <v>4.2790000000000008</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="12"/>
-        <v>4.6875</v>
+        <f t="shared" si="18"/>
+        <v>4.8624999999999998</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="1"/>
@@ -2079,14 +2085,14 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
+      <c r="A28" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D28" s="3">
         <v>3.75</v>
@@ -2095,21 +2101,21 @@
         <v>45876</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
       <c r="O28" s="2"/>
@@ -2131,67 +2137,87 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
         <v>3.75</v>
       </c>
       <c r="E29" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
+      <c r="A30" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3">
         <v>3.75</v>
       </c>
       <c r="E30" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2201,30 +2227,30 @@
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
         <v>3.75</v>
       </c>
       <c r="E31" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2236,30 +2262,30 @@
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3">
         <v>3.75</v>
       </c>
       <c r="E32" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2271,30 +2297,30 @@
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <v>3.75</v>
       </c>
       <c r="E33" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" ref="H33:H34" si="25">D33*1.07</f>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" ref="I33:I34" si="26">D33*1.1</f>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" ref="J33:J34" si="27">D33*1.25</f>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2306,30 +2332,30 @@
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>3.75</v>
       </c>
       <c r="E34" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>4.125</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2341,30 +2367,30 @@
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3">
         <v>3.75</v>
       </c>
       <c r="E35" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" ref="H35" si="28">D35*1.07</f>
+        <f t="shared" ref="H35:H36" si="31">D35*1.07</f>
         <v>4.0125000000000002</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" ref="I35" si="29">D35*1.1</f>
+        <f t="shared" ref="I35:I36" si="32">D35*1.1</f>
         <v>4.125</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" ref="J35" si="30">D35*1.25</f>
+        <f t="shared" ref="J35:J36" si="33">D35*1.25</f>
         <v>4.6875</v>
       </c>
     </row>
@@ -2376,30 +2402,30 @@
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3">
         <v>3.75</v>
       </c>
       <c r="E36" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" ref="H36" si="31">D36*1.07</f>
+        <f t="shared" si="31"/>
         <v>4.0125000000000002</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" ref="I36" si="32">D36*1.1</f>
+        <f t="shared" si="32"/>
         <v>4.125</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" ref="J36" si="33">D36*1.25</f>
+        <f t="shared" si="33"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -2411,31 +2437,31 @@
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E37" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37" si="34">D37*1.07</f>
-        <v>4.28</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" ref="I37" si="35">D37*1.1</f>
-        <v>4.4000000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" ref="J37" si="36">D37*1.25</f>
-        <v>5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2443,34 +2469,34 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="C38" s="2">
-        <v>0.8</v>
-      </c>
       <c r="D38" s="3">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="E38" s="4">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" ref="H38:H61" si="37">D38*1.07</f>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H38" si="37">D38*1.07</f>
+        <v>4.0125000000000002</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" ref="I38:I61" si="38">D38*1.1</f>
-        <v>12.65</v>
+        <f t="shared" ref="I38" si="38">D38*1.1</f>
+        <v>4.125</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" ref="J38:J61" si="39">D38*1.25</f>
-        <v>14.375</v>
+        <f t="shared" ref="J38" si="39">D38*1.25</f>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2478,13 +2504,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4">
         <v>45876</v>
@@ -2496,16 +2522,16 @@
         <v>7</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="37"/>
-        <v>12.305000000000001</v>
+        <f t="shared" ref="H39" si="40">D39*1.07</f>
+        <v>4.28</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="38"/>
-        <v>12.65</v>
+        <f t="shared" ref="I39" si="41">D39*1.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="39"/>
-        <v>14.375</v>
+        <f t="shared" ref="J39" si="42">D39*1.25</f>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2516,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D40" s="3">
         <v>11.5</v>
@@ -2531,15 +2557,15 @@
         <v>7</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H40:H63" si="43">D40*1.07</f>
         <v>12.305000000000001</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I40:I63" si="44">D40*1.1</f>
         <v>12.65</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="J40:J63" si="45">D40*1.25</f>
         <v>14.375</v>
       </c>
     </row>
@@ -2551,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
         <v>11.5</v>
@@ -2566,15 +2592,15 @@
         <v>7</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2586,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D42" s="3">
         <v>11.5</v>
@@ -2601,15 +2627,15 @@
         <v>7</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2621,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3">
         <v>11.5</v>
@@ -2636,15 +2662,15 @@
         <v>7</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2656,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3">
         <v>11.5</v>
@@ -2671,15 +2697,15 @@
         <v>7</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2691,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3">
         <v>11.5</v>
@@ -2706,15 +2732,15 @@
         <v>7</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2726,7 +2752,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3">
         <v>11.5</v>
@@ -2741,15 +2767,15 @@
         <v>7</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2761,7 +2787,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3">
         <v>11.5</v>
@@ -2776,15 +2802,15 @@
         <v>7</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2796,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3">
         <v>11.5</v>
@@ -2811,15 +2837,15 @@
         <v>7</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2831,7 +2857,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3">
         <v>11.5</v>
@@ -2846,15 +2872,15 @@
         <v>7</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>12.305000000000001</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>12.65</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.375</v>
       </c>
     </row>
@@ -2863,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E50" s="4">
         <v>45876</v>
@@ -2881,16 +2907,16 @@
         <v>7</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="37"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="43"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="38"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="44"/>
+        <v>12.65</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="39"/>
-        <v>21.25</v>
+        <f t="shared" si="45"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2898,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E51" s="4">
         <v>45876</v>
@@ -2916,16 +2942,16 @@
         <v>7</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="37"/>
-        <v>18.190000000000001</v>
+        <f t="shared" si="43"/>
+        <v>12.305000000000001</v>
       </c>
       <c r="I51" s="14">
-        <f t="shared" si="38"/>
-        <v>18.700000000000003</v>
+        <f t="shared" si="44"/>
+        <v>12.65</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="39"/>
-        <v>21.25</v>
+        <f t="shared" si="45"/>
+        <v>14.375</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2936,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D52" s="3">
         <v>17</v>
@@ -2951,15 +2977,15 @@
         <v>7</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21.25</v>
       </c>
     </row>
@@ -2971,7 +2997,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3">
         <v>17</v>
@@ -2986,15 +3012,15 @@
         <v>7</v>
       </c>
       <c r="H53" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21.25</v>
       </c>
     </row>
@@ -3006,7 +3032,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D54" s="3">
         <v>17</v>
@@ -3021,15 +3047,15 @@
         <v>7</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21.25</v>
       </c>
     </row>
@@ -3041,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3">
         <v>17</v>
@@ -3056,15 +3082,15 @@
         <v>7</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I55" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J55" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21.25</v>
       </c>
     </row>
@@ -3076,7 +3102,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
         <v>17</v>
@@ -3091,15 +3117,15 @@
         <v>7</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>18.190000000000001</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.700000000000003</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21.25</v>
       </c>
     </row>
@@ -3111,10 +3137,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E57" s="4">
         <v>45876</v>
@@ -3126,16 +3152,16 @@
         <v>7</v>
       </c>
       <c r="H57" s="13">
-        <f t="shared" si="37"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="43"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I57" s="14">
-        <f t="shared" si="38"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="44"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="39"/>
-        <v>20.625</v>
+        <f t="shared" si="45"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3146,10 +3172,10 @@
         <v>21</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E58" s="4">
         <v>45876</v>
@@ -3161,16 +3187,16 @@
         <v>7</v>
       </c>
       <c r="H58" s="13">
-        <f t="shared" si="37"/>
-        <v>17.655000000000001</v>
+        <f t="shared" si="43"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="I58" s="14">
-        <f t="shared" si="38"/>
-        <v>18.150000000000002</v>
+        <f t="shared" si="44"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="39"/>
-        <v>20.625</v>
+        <f t="shared" si="45"/>
+        <v>21.25</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D59" s="3">
         <v>16.5</v>
@@ -3196,15 +3222,15 @@
         <v>7</v>
       </c>
       <c r="H59" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>17.655000000000001</v>
       </c>
       <c r="I59" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.150000000000002</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>20.625</v>
       </c>
     </row>
@@ -3216,7 +3242,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3">
         <v>16.5</v>
@@ -3231,15 +3257,15 @@
         <v>7</v>
       </c>
       <c r="H60" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>17.655000000000001</v>
       </c>
       <c r="I60" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.150000000000002</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>20.625</v>
       </c>
     </row>
@@ -3251,7 +3277,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3">
         <v>16.5</v>
@@ -3266,15 +3292,15 @@
         <v>7</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>17.655000000000001</v>
       </c>
       <c r="I61" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18.150000000000002</v>
       </c>
       <c r="J61" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>20.625</v>
       </c>
     </row>
@@ -3283,32 +3309,34 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="D62" s="3">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="E62" s="4">
-        <v>45901</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>45876</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H62" s="13">
-        <f>D62*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I62" s="13">
-        <f>D62*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="43"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" si="44"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J62" s="14">
-        <f>D62*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="45"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3316,30 +3344,34 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3">
-        <v>18</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="E63" s="4">
+        <v>45876</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H63" s="13">
-        <f t="shared" ref="H63:H73" si="40">D63*1.07</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I63" s="13">
-        <f t="shared" ref="I63:I73" si="41">D63*1.1</f>
-        <v>19.8</v>
+        <f t="shared" si="43"/>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="44"/>
+        <v>18.150000000000002</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" ref="J63:J73" si="42">D63*1.25</f>
-        <v>22.5</v>
+        <f t="shared" si="45"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,26 +3382,28 @@
         <v>23</v>
       </c>
       <c r="C64" s="2">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D64" s="3">
         <v>18</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4">
+        <v>45901</v>
+      </c>
       <c r="F64" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="13">
-        <f t="shared" si="40"/>
+        <f>D64*1.07</f>
         <v>19.260000000000002</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="41"/>
+        <f>D64*1.1</f>
         <v>19.8</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="42"/>
+        <f>D64*1.25</f>
         <v>22.5</v>
       </c>
     </row>
@@ -3381,10 +3415,10 @@
         <v>23</v>
       </c>
       <c r="C65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="13" t="s">
@@ -3392,16 +3426,16 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="13">
-        <f t="shared" si="40"/>
-        <v>19.046000000000003</v>
+        <f t="shared" ref="H65:H76" si="46">D65*1.07</f>
+        <v>19.260000000000002</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="41"/>
-        <v>19.580000000000002</v>
+        <f t="shared" ref="I65:I76" si="47">D65*1.1</f>
+        <v>19.8</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="42"/>
-        <v>22.25</v>
+        <f t="shared" ref="J65:J76" si="48">D65*1.25</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3412,10 +3446,10 @@
         <v>23</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D66" s="3">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="13" t="s">
@@ -3423,16 +3457,16 @@
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="13">
-        <f t="shared" si="40"/>
-        <v>18.725000000000001</v>
+        <f t="shared" si="46"/>
+        <v>19.260000000000002</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="41"/>
-        <v>19.25</v>
+        <f t="shared" si="47"/>
+        <v>19.8</v>
       </c>
       <c r="J66" s="14">
-        <f t="shared" si="42"/>
-        <v>21.875</v>
+        <f t="shared" si="48"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,10 +3477,10 @@
         <v>23</v>
       </c>
       <c r="C67" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="13" t="s">
@@ -3454,16 +3488,16 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="13">
-        <f t="shared" si="40"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="46"/>
+        <v>19.046000000000003</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" si="41"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="47"/>
+        <v>19.580000000000002</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="42"/>
-        <v>21</v>
+        <f t="shared" si="48"/>
+        <v>22.25</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3474,10 +3508,10 @@
         <v>23</v>
       </c>
       <c r="C68" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="13" t="s">
@@ -3485,16 +3519,16 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="13">
-        <f t="shared" si="40"/>
-        <v>17.976000000000003</v>
+        <f t="shared" si="46"/>
+        <v>18.725000000000001</v>
       </c>
       <c r="I68" s="13">
-        <f t="shared" si="41"/>
-        <v>18.480000000000004</v>
+        <f t="shared" si="47"/>
+        <v>19.25</v>
       </c>
       <c r="J68" s="14">
-        <f t="shared" si="42"/>
-        <v>21</v>
+        <f t="shared" si="48"/>
+        <v>21.875</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,7 +3539,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" s="3">
         <v>16.8</v>
@@ -3516,15 +3550,15 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I69" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
     </row>
@@ -3536,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="C70" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3">
         <v>16.8</v>
@@ -3547,15 +3581,15 @@
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I70" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J70" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
     </row>
@@ -3567,7 +3601,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" s="3">
         <v>16.8</v>
@@ -3578,15 +3612,15 @@
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I71" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
     </row>
@@ -3598,7 +3632,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72" s="3">
         <v>16.8</v>
@@ -3609,15 +3643,15 @@
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
     </row>
@@ -3629,7 +3663,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3">
         <v>16.8</v>
@@ -3640,16 +3674,113 @@
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>17.976000000000003</v>
       </c>
       <c r="I73" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18.480000000000004</v>
       </c>
       <c r="J73" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="13">
+        <f t="shared" si="46"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I74" s="13">
+        <f t="shared" si="47"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2">
+        <v>15</v>
+      </c>
+      <c r="D75" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="13">
+        <f t="shared" si="46"/>
+        <v>17.976000000000003</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" si="47"/>
+        <v>18.480000000000004</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="E76" s="4">
+        <v>45905</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="13">
+        <f t="shared" si="46"/>
+        <v>3.7343000000000006</v>
+      </c>
+      <c r="I76" s="14">
+        <f t="shared" si="47"/>
+        <v>3.8390000000000004</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="48"/>
+        <v>4.3625000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/materials prices.xlsx
+++ b/materials prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\source\repos\arturave\Wycena_Python_CypCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D6AAF1-8C52-4CA7-A287-D4967303281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2513F-1BD1-43E1-83F7-D574A201248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41655" yWindow="1905" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
+    <workbookView xWindow="40050" yWindow="3375" windowWidth="29940" windowHeight="16260" xr2:uid="{B6C9A788-84B4-4CEC-86F3-A0DB952A2ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="28">
   <si>
     <t>1500X3000</t>
   </si>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J76" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J76" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}" name="Tabela1" displayName="Tabela1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:J77" xr:uid="{099BC4CB-B2CE-497D-83B9-137B540A0E71}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{98168DA6-53AA-42BB-B47A-AC2D3812F935}" name="format" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6E5679D8-3E43-4176-A704-9A8F76D077BB}" name="material" dataDxfId="8"/>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29BFFD-0239-4236-A174-109EBC167F8E}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
         <v>2.5</v>
@@ -3426,15 +3426,15 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="13">
-        <f t="shared" ref="H65:H76" si="46">D65*1.07</f>
+        <f t="shared" ref="H65:H77" si="46">D65*1.07</f>
         <v>19.260000000000002</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" ref="I65:I76" si="47">D65*1.1</f>
+        <f t="shared" ref="I65:I77" si="47">D65*1.1</f>
         <v>19.8</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" ref="J65:J76" si="48">D65*1.25</f>
+        <f t="shared" ref="J65:J77" si="48">D65*1.25</f>
         <v>22.5</v>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="13" t="s">
@@ -3489,15 +3489,15 @@
       <c r="G67" s="4"/>
       <c r="H67" s="13">
         <f t="shared" si="46"/>
-        <v>19.046000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I67" s="13">
         <f t="shared" si="47"/>
-        <v>19.580000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="48"/>
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="13" t="s">
@@ -3520,15 +3520,15 @@
       <c r="G68" s="4"/>
       <c r="H68" s="13">
         <f t="shared" si="46"/>
-        <v>18.725000000000001</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I68" s="13">
         <f t="shared" si="47"/>
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="48"/>
-        <v>21.875</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="13" t="s">
@@ -3551,15 +3551,15 @@
       <c r="G69" s="4"/>
       <c r="H69" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I69" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="13" t="s">
@@ -3582,15 +3582,15 @@
       <c r="G70" s="4"/>
       <c r="H70" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I70" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="13" t="s">
@@ -3613,15 +3613,15 @@
       <c r="G71" s="4"/>
       <c r="H71" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I71" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="13" t="s">
@@ -3644,15 +3644,15 @@
       <c r="G72" s="4"/>
       <c r="H72" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I72" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J72" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
         <v>10</v>
       </c>
       <c r="D73" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="13" t="s">
@@ -3675,15 +3675,15 @@
       <c r="G73" s="4"/>
       <c r="H73" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I73" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="13" t="s">
@@ -3706,15 +3706,15 @@
       <c r="G74" s="4"/>
       <c r="H74" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I74" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="3">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="13" t="s">
@@ -3737,15 +3737,15 @@
       <c r="G75" s="4"/>
       <c r="H75" s="13">
         <f t="shared" si="46"/>
-        <v>17.976000000000003</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I75" s="13">
         <f t="shared" si="47"/>
-        <v>18.480000000000004</v>
+        <v>19.8</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="48"/>
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3753,32 +3753,63 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3">
+        <v>18</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="13">
+        <f t="shared" ref="H76" si="49">D76*1.07</f>
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I76" s="13">
+        <f t="shared" ref="I76" si="50">D76*1.1</f>
+        <v>19.8</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" ref="J76" si="51">D76*1.25</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>3.49</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <v>45905</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="13">
         <f t="shared" si="46"/>
         <v>3.7343000000000006</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <f t="shared" si="47"/>
         <v>3.8390000000000004</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <f t="shared" si="48"/>
         <v>4.3625000000000007</v>
       </c>
